--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H2">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>20.413544753995</v>
+        <v>0.004739997254000001</v>
       </c>
       <c r="R2">
-        <v>183.721902785955</v>
+        <v>0.042659975286</v>
       </c>
       <c r="S2">
-        <v>0.0254421977326697</v>
+        <v>5.725076051612372E-05</v>
       </c>
       <c r="T2">
-        <v>0.0254421977326697</v>
+        <v>5.725076051612373E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H3">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.1184535007544444</v>
+        <v>0.02705648350955555</v>
       </c>
       <c r="R3">
-        <v>1.06608150679</v>
+        <v>0.243508351586</v>
       </c>
       <c r="S3">
-        <v>0.000147633222188504</v>
+        <v>0.0003267943365382412</v>
       </c>
       <c r="T3">
-        <v>0.000147633222188504</v>
+        <v>0.0003267943365382413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H4">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>1.078695400436111</v>
+        <v>0.477294341716889</v>
       </c>
       <c r="R4">
-        <v>9.708258603925</v>
+        <v>4.295649075452001</v>
       </c>
       <c r="S4">
-        <v>0.001344420187769981</v>
+        <v>0.005764869173769047</v>
       </c>
       <c r="T4">
-        <v>0.00134442018776998</v>
+        <v>0.005764869173769047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J5">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>557.9953720644029</v>
+        <v>0.5672399509139999</v>
       </c>
       <c r="R5">
-        <v>5021.958348579627</v>
+        <v>5.105159558225999</v>
       </c>
       <c r="S5">
-        <v>0.695451415276556</v>
+        <v>0.006851252615716216</v>
       </c>
       <c r="T5">
-        <v>0.6954514152765561</v>
+        <v>0.006851252615716217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J6">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>3.237874951280665</v>
@@ -818,10 +818,10 @@
         <v>29.14087456152599</v>
       </c>
       <c r="S6">
-        <v>0.004035489952229839</v>
+        <v>0.03910778709006508</v>
       </c>
       <c r="T6">
-        <v>0.00403548995222984</v>
+        <v>0.03910778709006509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I7">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J7">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>29.48566986107166</v>
+        <v>57.11826493961467</v>
       </c>
       <c r="R7">
-        <v>265.3710287496449</v>
+        <v>514.064384456532</v>
       </c>
       <c r="S7">
-        <v>0.03674914141204173</v>
+        <v>0.6898873421065457</v>
       </c>
       <c r="T7">
-        <v>0.03674914141204173</v>
+        <v>0.6898873421065457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H8">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>179.493897924685</v>
+        <v>0.198887402592</v>
       </c>
       <c r="R8">
-        <v>1615.445081322165</v>
+        <v>1.789986623328</v>
       </c>
       <c r="S8">
-        <v>0.2237102520821988</v>
+        <v>0.002402207099563116</v>
       </c>
       <c r="T8">
-        <v>0.2237102520821988</v>
+        <v>0.002402207099563116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H9">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>1.041547699307778</v>
+        <v>1.135273596192</v>
       </c>
       <c r="R9">
-        <v>9.373929293769999</v>
+        <v>10.217462365728</v>
       </c>
       <c r="S9">
-        <v>0.001298121557678496</v>
+        <v>0.01371209165174481</v>
       </c>
       <c r="T9">
-        <v>0.001298121557678496</v>
+        <v>0.01371209165174481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H10">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>9.484841776919446</v>
+        <v>20.026980356544</v>
       </c>
       <c r="R10">
-        <v>85.363575992275</v>
+        <v>180.242823208896</v>
       </c>
       <c r="S10">
-        <v>0.01182132857666695</v>
+        <v>0.2418904051655416</v>
       </c>
       <c r="T10">
-        <v>0.01182132857666695</v>
+        <v>0.2418904051655416</v>
       </c>
     </row>
   </sheetData>
